--- a/Testdata/ManageUpdatesPage_Data_Staging.xlsx
+++ b/Testdata/ManageUpdatesPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65927EB3-57ED-43B3-AE19-F29CD06F898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD35B1-1511-4EAC-AE48-05F75AD88F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test - Test</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>indication_type</t>
+  </si>
+  <si>
+    <t>Oncology</t>
   </si>
 </sst>
 </file>
@@ -94,12 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,41 +385,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ManageUpdatesPage_Data_Staging.xlsx
+++ b/Testdata/ManageUpdatesPage_Data_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD35B1-1511-4EAC-AE48-05F75AD88F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F31E1-DC4B-4D22-A25C-7D6E04D2153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>indication_type</t>
   </si>
   <si>
     <t>Oncology</t>
+  </si>
+  <si>
+    <t>population_name</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
